--- a/src/main/resources/template/bxApplyImportTemplate.xlsx
+++ b/src/main/resources/template/bxApplyImportTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28740" windowHeight="11310"/>
+    <workbookView windowWidth="24525" windowHeight="12090"/>
   </bookViews>
   <sheets>
     <sheet name="报销信息" sheetId="1" r:id="rId1"/>
@@ -19,144 +19,150 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
   <si>
     <t>报销信息</t>
   </si>
   <si>
-    <t>届别</t>
+    <t>届别：</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>月份</t>
+    <t>月份：</t>
+  </si>
+  <si>
+    <t>预算单位：</t>
+  </si>
+  <si>
+    <t>报销人工号：</t>
+  </si>
+  <si>
+    <t>报销人姓名：</t>
+  </si>
+  <si>
+    <t>报销日期：</t>
+  </si>
+  <si>
+    <t>其它金额：</t>
+  </si>
+  <si>
+    <t>附件张数：</t>
+  </si>
+  <si>
+    <t>报销类型：</t>
+  </si>
+  <si>
+    <t>报销单号：</t>
+  </si>
+  <si>
+    <t>开票单位</t>
+  </si>
+  <si>
+    <t>科目</t>
+  </si>
+  <si>
+    <t>动因名称</t>
+  </si>
+  <si>
+    <t>报销金额</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>计入执行</t>
+  </si>
+  <si>
+    <t>借款单号</t>
+  </si>
+  <si>
+    <t>借款人名称</t>
+  </si>
+  <si>
+    <t>冲账金额</t>
+  </si>
+  <si>
+    <t>收款人名称（户名）</t>
+  </si>
+  <si>
+    <t>收款人账号（银行卡号）</t>
+  </si>
+  <si>
+    <t>转账金额</t>
+  </si>
+  <si>
+    <t>付款单位</t>
+  </si>
+  <si>
+    <t>出差人</t>
+  </si>
+  <si>
+    <t>出差事由</t>
+  </si>
+  <si>
+    <t>交通工具</t>
+  </si>
+  <si>
+    <t>开始日期</t>
+  </si>
+  <si>
+    <t>结束日期</t>
+  </si>
+  <si>
+    <t>地点</t>
+  </si>
+  <si>
+    <t>长途交通费</t>
+  </si>
+  <si>
+    <t>市内交通费</t>
+  </si>
+  <si>
+    <t>住宿费</t>
+  </si>
+  <si>
+    <t>出差补助</t>
+  </si>
+  <si>
+    <t>其它</t>
+  </si>
+  <si>
+    <t>小计</t>
+  </si>
+  <si>
+    <t>出发地</t>
+  </si>
+  <si>
+    <t>目的地</t>
+  </si>
+  <si>
+    <t>天数</t>
+  </si>
+  <si>
+    <t>标准</t>
+  </si>
+  <si>
+    <t>金额</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>餐费</t>
+  </si>
+  <si>
+    <t>宣传品费</t>
+  </si>
+  <si>
+    <t>人数</t>
+  </si>
+  <si>
+    <t>间数</t>
   </si>
   <si>
     <t>预算单位</t>
-  </si>
-  <si>
-    <t>报销人</t>
-  </si>
-  <si>
-    <t>报销日期</t>
-  </si>
-  <si>
-    <t>其它金额</t>
-  </si>
-  <si>
-    <t>附件张数</t>
-  </si>
-  <si>
-    <t>报销类型</t>
-  </si>
-  <si>
-    <t>报销单号</t>
-  </si>
-  <si>
-    <t>开票单位</t>
-  </si>
-  <si>
-    <t>科目</t>
-  </si>
-  <si>
-    <t>动因名称</t>
-  </si>
-  <si>
-    <t>报销金额</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>计入执行</t>
-  </si>
-  <si>
-    <t>借款单号</t>
-  </si>
-  <si>
-    <t>借款人名称</t>
-  </si>
-  <si>
-    <t>冲账金额</t>
-  </si>
-  <si>
-    <t>收款人名称（户名）</t>
-  </si>
-  <si>
-    <t>收款人账号（银行卡号）</t>
-  </si>
-  <si>
-    <t>转账金额</t>
-  </si>
-  <si>
-    <t>付款单位</t>
-  </si>
-  <si>
-    <t>出差人</t>
-  </si>
-  <si>
-    <t>出差事由</t>
-  </si>
-  <si>
-    <t>交通工具</t>
-  </si>
-  <si>
-    <t>开始日期</t>
-  </si>
-  <si>
-    <t>结束日期</t>
-  </si>
-  <si>
-    <t>地点</t>
-  </si>
-  <si>
-    <t>长途交通费</t>
-  </si>
-  <si>
-    <t>市内交通费</t>
-  </si>
-  <si>
-    <t>住宿费</t>
-  </si>
-  <si>
-    <t>出差补助</t>
-  </si>
-  <si>
-    <t>其它</t>
-  </si>
-  <si>
-    <t>小计</t>
-  </si>
-  <si>
-    <t>出发地</t>
-  </si>
-  <si>
-    <t>目的地</t>
-  </si>
-  <si>
-    <t>天数</t>
-  </si>
-  <si>
-    <t>标准</t>
-  </si>
-  <si>
-    <t>金额</t>
-  </si>
-  <si>
-    <t>日期</t>
-  </si>
-  <si>
-    <t>餐费</t>
-  </si>
-  <si>
-    <t>宣传品费</t>
-  </si>
-  <si>
-    <t>人数</t>
-  </si>
-  <si>
-    <t>间数</t>
   </si>
   <si>
     <t>划拨动因名称</t>
@@ -170,10 +176,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -210,13 +216,86 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color indexed="20"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="54"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -228,24 +307,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color indexed="52"/>
@@ -253,43 +314,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -302,39 +329,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="54"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
+      <color indexed="60"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -349,12 +355,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -367,79 +445,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="62"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,11 +471,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color indexed="49"/>
+      <bottom style="double">
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -473,15 +506,6 @@
       </top>
       <bottom style="thin">
         <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,10 +527,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color indexed="49"/>
       </bottom>
       <diagonal/>
@@ -515,8 +537,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color indexed="52"/>
+      <bottom style="medium">
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,17 +558,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color indexed="63"/>
+        <color indexed="49"/>
       </top>
-      <bottom style="thin">
-        <color indexed="63"/>
+      <bottom style="double">
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,149 +576,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -721,6 +739,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -790,8 +814,8 @@
   <colors>
     <mruColors>
       <color rgb="00000000"/>
+      <color rgb="00FF0000"/>
       <color rgb="00FFFF00"/>
-      <color rgb="00FF0000"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1060,115 +1084,122 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="22.125" customWidth="1"/>
     <col min="2" max="2" width="17.875" customWidth="1"/>
-    <col min="3" max="3" width="30.5" customWidth="1"/>
+    <col min="3" max="3" width="25.375" customWidth="1"/>
     <col min="4" max="4" width="15.75" customWidth="1"/>
-    <col min="5" max="5" width="33.5" customWidth="1"/>
-    <col min="6" max="6" width="16.125" customWidth="1"/>
-    <col min="7" max="7" width="69.375" customWidth="1"/>
+    <col min="5" max="5" width="20.75" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="8" max="8" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" ht="32.1" customHeight="1" spans="1:7">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>4</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="7"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" ht="32.1" customHeight="1" spans="1:7">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="7"/>
+      <c r="G3" s="11" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:7">
-      <c r="A4" s="7" t="s">
-        <v>8</v>
+      <c r="A4" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>9</v>
+      <c r="C4" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>10</v>
+      <c r="E4" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="F4" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="7"/>
+      <c r="G4" s="9"/>
     </row>
-    <row r="5" ht="30.95" customHeight="1" spans="1:6">
+    <row r="5" ht="30.95" customHeight="1" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="F5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1199,13 +1230,13 @@
   <sheetData>
     <row r="1" ht="27.95" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1235,16 +1266,16 @@
   <sheetData>
     <row r="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1279,7 +1310,7 @@
   <sheetData>
     <row r="1" ht="31.5" customHeight="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="5" t="s">
@@ -1288,7 +1319,7 @@
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="5" t="s">
@@ -1302,37 +1333,37 @@
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" ht="21" customHeight="1" spans="1:13">
@@ -1340,22 +1371,22 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -1406,52 +1437,52 @@
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L1" s="4"/>
     </row>
     <row r="2" ht="24" customHeight="1" spans="1:12">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -1495,19 +1526,19 @@
   <sheetData>
     <row r="1" ht="30.95" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="3"/>
     </row>
